--- a/Original/Tables/NewTU_PolicyBranchTypes_ORG.xlsx
+++ b/Original/Tables/NewTU_PolicyBranchTypes_ORG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="PolicyBranchTypes" sheetId="1" r:id="rId1"/>
-    <sheet name="PolicyBranch_Disables" sheetId="2" r:id="rId2"/>
+    <sheet name="Disables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PolicyBranchTypes!$A$1:$T$1</definedName>
@@ -1412,7 +1412,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Original/Tables/NewTU_PolicyBranchTypes_ORG.xlsx
+++ b/Original/Tables/NewTU_PolicyBranchTypes_ORG.xlsx
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,6 +516,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1406,13 +1409,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1430,77 +1433,80 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:2" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="33"/>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B14" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Original/Tables/NewTU_PolicyBranchTypes_ORG.xlsx
+++ b/Original/Tables/NewTU_PolicyBranchTypes_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyBranchTypes" sheetId="1" r:id="rId1"/>
@@ -803,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
